--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value785.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value785.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.017278089137446</v>
+        <v>1.789908885955811</v>
       </c>
       <c r="B1">
-        <v>3.57553495333622</v>
+        <v>4.238265514373779</v>
       </c>
       <c r="C1">
-        <v>3.182174195118264</v>
+        <v>1.90139627456665</v>
       </c>
       <c r="D1">
-        <v>2.173149211757586</v>
+        <v>0.8824335336685181</v>
       </c>
       <c r="E1">
-        <v>1.214494316034026</v>
+        <v>0.4760893881320953</v>
       </c>
     </row>
   </sheetData>
